--- a/csv/business.xlsx
+++ b/csv/business.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dhbwstg-my.sharepoint.com/personal/inf18086_lehre_dhbw-stuttgart_de/Documents/Studium/Semester 4/Database/MUIC-restaurant-guide/csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philip Singer\OneDrive - Duale Hochschule Baden-Württemberg Stuttgart\Studium\Semester 4\Database\MUIC-restaurant-guide\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AFB5F08-21C7-4055-9620-6D0E01EB4B56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{8AFB5F08-21C7-4055-9620-6D0E01EB4B56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B2C2D8D9-F64B-4D25-9953-4728DCCB69E0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{9AC91092-9A68-41ED-8AEF-8312BF951120}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
   <si>
     <t>business_id</t>
   </si>
@@ -177,25 +177,52 @@
     <t>One night Crepe</t>
   </si>
   <si>
-    <t>bruger, international</t>
-  </si>
-  <si>
-    <t>fruit, shakes, cheap</t>
-  </si>
-  <si>
     <t>Unnamed Road, Salaya</t>
   </si>
   <si>
-    <t>gaiang, chicken, grilled, street food</t>
-  </si>
-  <si>
-    <t>wrap, maxican, international, burger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thai, spaghetti, </t>
-  </si>
-  <si>
-    <t>international, pizza, italien, shakes, sweet, spaghetti</t>
+    <t>lovely burger</t>
+  </si>
+  <si>
+    <t>amazing burger and wraps</t>
+  </si>
+  <si>
+    <t>Everything you want</t>
+  </si>
+  <si>
+    <t>such a experience</t>
+  </si>
+  <si>
+    <t>Perfect for your everyday curry supply</t>
+  </si>
+  <si>
+    <t>fresh fruit shakes</t>
+  </si>
+  <si>
+    <t>fresh fruitshakes and fruits</t>
+  </si>
+  <si>
+    <t>relaxed restaurant</t>
+  </si>
+  <si>
+    <t>for a special evening!</t>
+  </si>
+  <si>
+    <t>best italien restaurant in salaya</t>
+  </si>
+  <si>
+    <t>sweet and hot</t>
+  </si>
+  <si>
+    <t>08:00-19:00</t>
+  </si>
+  <si>
+    <t>11:00-15:00</t>
+  </si>
+  <si>
+    <t>10:00-18:00</t>
+  </si>
+  <si>
+    <t>22:00-03:00</t>
   </si>
 </sst>
 </file>
@@ -562,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA50647-3C8E-4A1A-87B5-46B9C56DE636}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +668,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -673,7 +703,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -705,7 +738,10 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -737,7 +773,10 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -748,7 +787,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -769,7 +808,10 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -803,6 +845,9 @@
       <c r="J7" t="s">
         <v>53</v>
       </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -832,6 +877,12 @@
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -861,6 +912,12 @@
       <c r="I9">
         <v>1</v>
       </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -890,6 +947,12 @@
       <c r="I10">
         <v>1</v>
       </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -919,6 +982,12 @@
       <c r="I11">
         <v>1</v>
       </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -948,6 +1017,12 @@
       <c r="I12">
         <v>1</v>
       </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -977,6 +1052,12 @@
       <c r="I13">
         <v>1</v>
       </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1006,6 +1087,12 @@
       <c r="I14">
         <v>1</v>
       </c>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1035,6 +1122,12 @@
       <c r="I15">
         <v>1</v>
       </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1064,8 +1157,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1093,8 +1192,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1122,8 +1227,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1151,8 +1262,14 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1180,8 +1297,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1209,8 +1332,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1237,6 +1366,12 @@
       </c>
       <c r="I22">
         <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1246,6 +1381,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DC82BB9D13200C4A8C40DFD5CFF2538E" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6b2a8341c6959f9f168a731bc5ed52d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9f5ecd72-c3c0-49f2-bf4f-999d7002fd95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7f309e919d4988f782f725d344996ea" ns3:_="">
     <xsd:import namespace="9f5ecd72-c3c0-49f2-bf4f-999d7002fd95"/>
@@ -1415,22 +1565,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A971EF-16B7-47E7-A4A8-6D3FD024CE7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9f5ecd72-c3c0-49f2-bf4f-999d7002fd95"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6E9E7B2-821D-4F79-900F-0F7C98329D5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FCBDDA1-4CB9-4D27-AC4B-BF4DBD96C544}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1446,28 +1605,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6E9E7B2-821D-4F79-900F-0F7C98329D5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A971EF-16B7-47E7-A4A8-6D3FD024CE7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9f5ecd72-c3c0-49f2-bf4f-999d7002fd95"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>